--- a/doc/外部設計書/外部設計書_F2_fireworks_使い方.xlsx
+++ b/doc/外部設計書/外部設計書_F2_fireworks_使い方.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\外部設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E453A639-3D4F-4BDA-B17B-72BDB9AF3434}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF86430A-0784-48B7-9352-3426149BD803}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -181,10 +181,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>ドロワーメニュー</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>山下</t>
     <rPh sb="0" eb="2">
       <t>ヤマシタ</t>
@@ -193,6 +189,16 @@
   </si>
   <si>
     <t>memoly</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>使い方</t>
+    <rPh sb="0" eb="1">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カタ</t>
+    </rPh>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -786,23 +792,96 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>201442</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>113145</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>167172</xdr:rowOff>
+      <xdr:rowOff>164192</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>142294</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>146377</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>182418</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>129556</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="正方形/長方形 2">
+        <xdr:cNvPr id="9" name="テキスト ボックス 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF08B51B-7AC5-439A-8939-30C65A1970CC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7432A744-FB42-453F-A6E3-7017B068BA8E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1891145" y="1878692"/>
+          <a:ext cx="577273" cy="727364"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>190499</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>145142</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>45356</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="正方形/長方形 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53504506-2633-4DAD-9215-120E90444921}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -810,19 +889,21 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2233442" y="1881672"/>
-          <a:ext cx="1464852" cy="4360705"/>
+          <a:off x="2222499" y="1859642"/>
+          <a:ext cx="3410857" cy="553358"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:alpha val="40000"/>
+          <a:schemeClr val="bg2">
+            <a:lumMod val="90000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:ln>
-          <a:noFill/>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -854,146 +935,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>222231</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>40126</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>151364</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>164891</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="テキスト ボックス 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1C5FDDA-EFC8-464E-8144-FD05331188E0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2254231" y="2516626"/>
-          <a:ext cx="1453133" cy="2220265"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>マップ</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
-            <a:solidFill>
-              <a:schemeClr val="bg1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>リスト</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
-            <a:solidFill>
-              <a:schemeClr val="bg1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>称号</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
-            <a:solidFill>
-              <a:schemeClr val="bg1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>ストーリー</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
-            <a:solidFill>
-              <a:schemeClr val="bg1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>使い方</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
-            <a:solidFill>
-              <a:schemeClr val="bg1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2800">
-            <a:solidFill>
-              <a:schemeClr val="bg1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>103502</xdr:colOff>
       <xdr:row>10</xdr:row>
@@ -1001,9 +942,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>87287</xdr:colOff>
+      <xdr:colOff>136071</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>40509</xdr:rowOff>
+      <xdr:rowOff>172357</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -1019,7 +960,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="2389502" y="2024535"/>
-          <a:ext cx="237785" cy="111474"/>
+          <a:ext cx="286569" cy="243322"/>
           <a:chOff x="6582064" y="8647545"/>
           <a:chExt cx="415636" cy="374074"/>
         </a:xfrm>
@@ -1149,23 +1090,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>113145</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>82550</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>99786</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>126999</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>182418</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>47914</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>72572</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>172356</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="テキスト ボックス 8">
+        <xdr:cNvPr id="16" name="テキスト ボックス 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7432A744-FB42-453F-A6E3-7017B068BA8E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79D47346-95A2-4A92-B732-E5D21A642DA8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1173,15 +1114,157 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1891145" y="1797050"/>
-          <a:ext cx="577273" cy="727364"/>
+          <a:off x="2385786" y="2603499"/>
+          <a:ext cx="1750786" cy="1950357"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>163286</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>99786</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>136072</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>108858</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="テキスト ボックス 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{418F11F0-1234-4787-BA54-F4367075D3FC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3719286" y="4671786"/>
+          <a:ext cx="1750786" cy="1533072"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>145143</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>172357</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>199571</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>54429</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="テキスト ボックス 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37343EA0-A1B3-45D7-9574-A0E6082DA06E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4209143" y="2648857"/>
+          <a:ext cx="1324428" cy="1787072"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -1203,18 +1286,10 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>1</a:t>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:endParaRPr>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1222,23 +1297,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>119495</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>36285</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>117928</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>188768</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>174914</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>90713</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>81643</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="テキスト ボックス 9">
+        <xdr:cNvPr id="19" name="テキスト ボックス 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43BB02C1-83CC-48BC-BC12-CAC084197A6E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B7CF64D-EB9C-4E2B-BE10-5F9B3EF8034E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1246,15 +1321,21 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1897495" y="2495550"/>
-          <a:ext cx="577273" cy="727364"/>
+          <a:off x="2322285" y="4689928"/>
+          <a:ext cx="1324428" cy="1487715"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
         <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -1276,310 +1357,10 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>2</a:t>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>125845</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>195118</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>136814</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="テキスト ボックス 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32DB173C-BAE9-4C1E-A39F-38738A421599}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1903845" y="2838450"/>
-          <a:ext cx="577273" cy="727364"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>3</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>125845</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>120650</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>195118</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>86014</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="テキスト ボックス 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F49451D3-858B-40A1-8DCB-0CAA89C99384}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1903845" y="3168650"/>
-          <a:ext cx="577273" cy="727364"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>4</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>138545</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>207818</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>60614</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="テキスト ボックス 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{417AD527-2C00-4068-BA26-7878C4853F13}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1916545" y="3524250"/>
-          <a:ext cx="577273" cy="727364"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>5</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>125845</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>195118</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>28864</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="テキスト ボックス 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85F90D27-4C57-495E-A60A-F7C1D7248751}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1903845" y="3873500"/>
-          <a:ext cx="577273" cy="727364"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>6</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:endParaRPr>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1912,7 +1693,7 @@
   <dimension ref="A1:AN109"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AB22" sqref="AB22"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1939,7 +1720,7 @@
       <c r="L1" s="28"/>
       <c r="M1" s="28"/>
       <c r="N1" s="28" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="O1" s="28"/>
       <c r="P1" s="28"/>
@@ -1954,7 +1735,7 @@
       </c>
       <c r="X1" s="28"/>
       <c r="Y1" s="28" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Z1" s="28"/>
       <c r="AA1" s="28"/>
@@ -1967,7 +1748,7 @@
       </c>
       <c r="AG1" s="43"/>
       <c r="AH1" s="35" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI1" s="35"/>
       <c r="AJ1" s="35"/>
@@ -1993,7 +1774,7 @@
       <c r="L2" s="37"/>
       <c r="M2" s="37"/>
       <c r="N2" s="37" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O2" s="37"/>
       <c r="P2" s="37"/>
@@ -2021,7 +1802,7 @@
       </c>
       <c r="AG2" s="39"/>
       <c r="AH2" s="40">
-        <v>45083</v>
+        <v>45084</v>
       </c>
       <c r="AI2" s="41"/>
       <c r="AJ2" s="41"/>

--- a/doc/外部設計書/外部設計書_F2_fireworks_使い方.xlsx
+++ b/doc/外部設計書/外部設計書_F2_fireworks_使い方.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\外部設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF86430A-0784-48B7-9352-3426149BD803}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE377FF7-F8B7-4F7C-9BDB-ACEB0402F99C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
   <si>
     <t>画面名</t>
     <rPh sb="0" eb="2">
@@ -201,6 +201,54 @@
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
+  <si>
+    <t>menu</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ドロワーメニュー</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>button</t>
+  </si>
+  <si>
+    <t>drawer</t>
+  </si>
+  <si>
+    <t>usage_img</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>usage_txt</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>画僧</t>
+    <rPh sb="0" eb="2">
+      <t>ガソウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>説明文</t>
+    <rPh sb="0" eb="3">
+      <t>セツメイブン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>input</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Image</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="3"/>
+  </si>
 </sst>
 </file>
 
@@ -209,7 +257,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -253,6 +301,12 @@
       <name val="ＭＳ ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF1D1C1D"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -574,7 +628,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -699,6 +753,7 @@
     <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -959,8 +1014,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2389502" y="2024535"/>
-          <a:ext cx="286569" cy="243322"/>
+          <a:off x="2389502" y="2052144"/>
+          <a:ext cx="286569" cy="246083"/>
           <a:chOff x="6582064" y="8647545"/>
           <a:chExt cx="415636" cy="374074"/>
         </a:xfrm>
@@ -1366,6 +1421,499 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>108857</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>45357</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>199571</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>54429</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="テキスト ボックス 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{208BC446-D3D3-467A-A905-96F81E931C5D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="616857" y="8046357"/>
+          <a:ext cx="5424714" cy="3057072"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>「</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　ドロワーメニュー」をクリック</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ドロワーメニューを表示</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>「</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>画像</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>」</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>説明用の画面</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>「</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>3</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>説明文</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>」</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>説明文</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>143565</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>110435</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>212838</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>75798</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="テキスト ボックス 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7A964C6-FDC7-496D-AF83-CB505DEF535A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2175565" y="2622826"/>
+          <a:ext cx="577273" cy="738407"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>237435</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>77304</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>52708</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>42667</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="テキスト ボックス 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{148F9D4D-2886-458A-857B-B3796ED1D893}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4047435" y="2589695"/>
+          <a:ext cx="577273" cy="738407"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>3</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1692,8 +2240,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L81" sqref="L81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4896,22 +5444,32 @@
       <c r="AM78" s="18"/>
       <c r="AN78" s="7"/>
     </row>
-    <row r="79" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="6"/>
       <c r="B79" s="12"/>
-      <c r="C79" s="13"/>
-      <c r="D79" s="14"/>
+      <c r="C79" s="13">
+        <v>1</v>
+      </c>
+      <c r="D79" s="14" t="s">
+        <v>24</v>
+      </c>
       <c r="E79" s="15"/>
       <c r="F79" s="15"/>
       <c r="G79" s="13"/>
-      <c r="H79" s="14"/>
+      <c r="H79" s="14" t="s">
+        <v>25</v>
+      </c>
       <c r="I79" s="16"/>
       <c r="J79" s="15"/>
       <c r="K79" s="17"/>
-      <c r="L79" s="14"/>
+      <c r="L79" s="44" t="s">
+        <v>26</v>
+      </c>
       <c r="M79" s="15"/>
       <c r="N79" s="17"/>
-      <c r="O79" s="14"/>
+      <c r="O79" s="44" t="s">
+        <v>27</v>
+      </c>
       <c r="P79" s="15"/>
       <c r="Q79" s="15"/>
       <c r="R79" s="17"/>
@@ -4941,16 +5499,24 @@
     <row r="80" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="6"/>
       <c r="B80" s="12"/>
-      <c r="C80" s="13"/>
-      <c r="D80" s="14"/>
+      <c r="C80" s="13">
+        <v>2</v>
+      </c>
+      <c r="D80" s="14" t="s">
+        <v>28</v>
+      </c>
       <c r="E80" s="15"/>
       <c r="F80" s="15"/>
       <c r="G80" s="13"/>
-      <c r="H80" s="14"/>
+      <c r="H80" s="14" t="s">
+        <v>30</v>
+      </c>
       <c r="I80" s="16"/>
       <c r="J80" s="15"/>
       <c r="K80" s="17"/>
-      <c r="L80" s="14"/>
+      <c r="L80" s="14" t="s">
+        <v>33</v>
+      </c>
       <c r="M80" s="15"/>
       <c r="N80" s="17"/>
       <c r="O80" s="14"/>
@@ -4983,19 +5549,29 @@
     <row r="81" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="6"/>
       <c r="B81" s="12"/>
-      <c r="C81" s="13"/>
-      <c r="D81" s="14"/>
+      <c r="C81" s="13">
+        <v>3</v>
+      </c>
+      <c r="D81" s="14" t="s">
+        <v>29</v>
+      </c>
       <c r="E81" s="15"/>
       <c r="F81" s="15"/>
       <c r="G81" s="13"/>
-      <c r="H81" s="14"/>
+      <c r="H81" s="14" t="s">
+        <v>31</v>
+      </c>
       <c r="I81" s="16"/>
       <c r="J81" s="15"/>
       <c r="K81" s="17"/>
-      <c r="L81" s="14"/>
+      <c r="L81" s="14" t="s">
+        <v>32</v>
+      </c>
       <c r="M81" s="15"/>
       <c r="N81" s="17"/>
-      <c r="O81" s="14"/>
+      <c r="O81" s="14" t="s">
+        <v>34</v>
+      </c>
       <c r="P81" s="15"/>
       <c r="Q81" s="15"/>
       <c r="R81" s="17"/>

--- a/doc/外部設計書/外部設計書_F2_fireworks_使い方.xlsx
+++ b/doc/外部設計書/外部設計書_F2_fireworks_使い方.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\外部設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE377FF7-F8B7-4F7C-9BDB-ACEB0402F99C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B819D1E-13D0-46A8-A4D7-D1F370E2D13C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>画面名</t>
     <rPh sb="0" eb="2">
@@ -224,13 +224,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>画僧</t>
-    <rPh sb="0" eb="2">
-      <t>ガソウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>説明文</t>
     <rPh sb="0" eb="3">
       <t>セツメイブン</t>
@@ -247,6 +240,20 @@
   </si>
   <si>
     <t>text</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>辻</t>
+    <rPh sb="0" eb="1">
+      <t>ツジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>画像</t>
+    <rPh sb="0" eb="2">
+      <t>ガゾウ</t>
+    </rPh>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -678,6 +685,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -753,7 +761,6 @@
     <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1014,8 +1021,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2389502" y="2052144"/>
-          <a:ext cx="286569" cy="246083"/>
+          <a:off x="2389502" y="2061888"/>
+          <a:ext cx="286569" cy="247057"/>
           <a:chOff x="6582064" y="8647545"/>
           <a:chExt cx="415636" cy="374074"/>
         </a:xfrm>
@@ -1763,6 +1770,58 @@
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
             <a:t>説明文</a:t>
           </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>「４　使い方画面」スクロール</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>画面がスクロールできる</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1909,6 +1968,74 @@
               <a:srgbClr val="FF0000"/>
             </a:solidFill>
           </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>117906</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>114657</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>187179</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>80020</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="テキスト ボックス 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C6E47AC-516A-44AC-A4CC-D4AFC6D5189A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1895906" y="4193598"/>
+          <a:ext cx="577273" cy="742304"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>４</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2240,8 +2367,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L81" sqref="L81"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H81" sqref="H81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2250,158 +2377,158 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="28" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28" t="s">
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="O1" s="28"/>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="28"/>
-      <c r="R1" s="28"/>
-      <c r="S1" s="28"/>
-      <c r="T1" s="28"/>
-      <c r="U1" s="28"/>
-      <c r="V1" s="28"/>
-      <c r="W1" s="28" t="s">
+      <c r="O1" s="29"/>
+      <c r="P1" s="29"/>
+      <c r="Q1" s="29"/>
+      <c r="R1" s="29"/>
+      <c r="S1" s="29"/>
+      <c r="T1" s="29"/>
+      <c r="U1" s="29"/>
+      <c r="V1" s="29"/>
+      <c r="W1" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="28"/>
-      <c r="Y1" s="28" t="s">
+      <c r="X1" s="29"/>
+      <c r="Y1" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="Z1" s="28"/>
-      <c r="AA1" s="28"/>
-      <c r="AB1" s="28"/>
-      <c r="AC1" s="28"/>
-      <c r="AD1" s="28"/>
-      <c r="AE1" s="28"/>
-      <c r="AF1" s="43" t="s">
+      <c r="Z1" s="29"/>
+      <c r="AA1" s="29"/>
+      <c r="AB1" s="29"/>
+      <c r="AC1" s="29"/>
+      <c r="AD1" s="29"/>
+      <c r="AE1" s="29"/>
+      <c r="AF1" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="43"/>
-      <c r="AH1" s="35" t="s">
-        <v>21</v>
+      <c r="AG1" s="44"/>
+      <c r="AH1" s="36" t="s">
+        <v>34</v>
       </c>
-      <c r="AI1" s="35"/>
-      <c r="AJ1" s="35"/>
-      <c r="AK1" s="35"/>
-      <c r="AL1" s="35"/>
-      <c r="AM1" s="35"/>
-      <c r="AN1" s="36"/>
+      <c r="AI1" s="36"/>
+      <c r="AJ1" s="36"/>
+      <c r="AK1" s="36"/>
+      <c r="AL1" s="36"/>
+      <c r="AM1" s="36"/>
+      <c r="AN1" s="37"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="22"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="37" t="s">
+      <c r="A2" s="23"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37" t="s">
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="O2" s="37"/>
-      <c r="P2" s="37"/>
-      <c r="Q2" s="37"/>
-      <c r="R2" s="37"/>
-      <c r="S2" s="37"/>
-      <c r="T2" s="37"/>
-      <c r="U2" s="37"/>
-      <c r="V2" s="37"/>
-      <c r="W2" s="37" t="s">
+      <c r="O2" s="38"/>
+      <c r="P2" s="38"/>
+      <c r="Q2" s="38"/>
+      <c r="R2" s="38"/>
+      <c r="S2" s="38"/>
+      <c r="T2" s="38"/>
+      <c r="U2" s="38"/>
+      <c r="V2" s="38"/>
+      <c r="W2" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="37"/>
-      <c r="Y2" s="38">
+      <c r="X2" s="38"/>
+      <c r="Y2" s="39">
         <v>45083</v>
       </c>
-      <c r="Z2" s="37"/>
-      <c r="AA2" s="37"/>
-      <c r="AB2" s="37"/>
-      <c r="AC2" s="37"/>
-      <c r="AD2" s="37"/>
-      <c r="AE2" s="37"/>
-      <c r="AF2" s="39" t="s">
+      <c r="Z2" s="38"/>
+      <c r="AA2" s="38"/>
+      <c r="AB2" s="38"/>
+      <c r="AC2" s="38"/>
+      <c r="AD2" s="38"/>
+      <c r="AE2" s="38"/>
+      <c r="AF2" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="39"/>
-      <c r="AH2" s="40">
+      <c r="AG2" s="40"/>
+      <c r="AH2" s="41">
         <v>45084</v>
       </c>
-      <c r="AI2" s="41"/>
-      <c r="AJ2" s="41"/>
-      <c r="AK2" s="41"/>
-      <c r="AL2" s="41"/>
-      <c r="AM2" s="41"/>
-      <c r="AN2" s="42"/>
+      <c r="AI2" s="42"/>
+      <c r="AJ2" s="42"/>
+      <c r="AK2" s="42"/>
+      <c r="AL2" s="42"/>
+      <c r="AM2" s="42"/>
+      <c r="AN2" s="43"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="25"/>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="29" t="s">
+      <c r="A3" s="26"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="30"/>
-      <c r="M3" s="31"/>
-      <c r="N3" s="32"/>
-      <c r="O3" s="33"/>
-      <c r="P3" s="33"/>
-      <c r="Q3" s="33"/>
-      <c r="R3" s="33"/>
-      <c r="S3" s="33"/>
-      <c r="T3" s="33"/>
-      <c r="U3" s="33"/>
-      <c r="V3" s="33"/>
-      <c r="W3" s="33"/>
-      <c r="X3" s="33"/>
-      <c r="Y3" s="33"/>
-      <c r="Z3" s="33"/>
-      <c r="AA3" s="33"/>
-      <c r="AB3" s="33"/>
-      <c r="AC3" s="33"/>
-      <c r="AD3" s="33"/>
-      <c r="AE3" s="33"/>
-      <c r="AF3" s="33"/>
-      <c r="AG3" s="33"/>
-      <c r="AH3" s="33"/>
-      <c r="AI3" s="33"/>
-      <c r="AJ3" s="33"/>
-      <c r="AK3" s="33"/>
-      <c r="AL3" s="33"/>
-      <c r="AM3" s="33"/>
-      <c r="AN3" s="34"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="32"/>
+      <c r="N3" s="33"/>
+      <c r="O3" s="34"/>
+      <c r="P3" s="34"/>
+      <c r="Q3" s="34"/>
+      <c r="R3" s="34"/>
+      <c r="S3" s="34"/>
+      <c r="T3" s="34"/>
+      <c r="U3" s="34"/>
+      <c r="V3" s="34"/>
+      <c r="W3" s="34"/>
+      <c r="X3" s="34"/>
+      <c r="Y3" s="34"/>
+      <c r="Z3" s="34"/>
+      <c r="AA3" s="34"/>
+      <c r="AB3" s="34"/>
+      <c r="AC3" s="34"/>
+      <c r="AD3" s="34"/>
+      <c r="AE3" s="34"/>
+      <c r="AF3" s="34"/>
+      <c r="AG3" s="34"/>
+      <c r="AH3" s="34"/>
+      <c r="AI3" s="34"/>
+      <c r="AJ3" s="34"/>
+      <c r="AK3" s="34"/>
+      <c r="AL3" s="34"/>
+      <c r="AM3" s="34"/>
+      <c r="AN3" s="35"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -5462,12 +5589,12 @@
       <c r="I79" s="16"/>
       <c r="J79" s="15"/>
       <c r="K79" s="17"/>
-      <c r="L79" s="44" t="s">
+      <c r="L79" s="19" t="s">
         <v>26</v>
       </c>
       <c r="M79" s="15"/>
       <c r="N79" s="17"/>
-      <c r="O79" s="44" t="s">
+      <c r="O79" s="19" t="s">
         <v>27</v>
       </c>
       <c r="P79" s="15"/>
@@ -5509,13 +5636,13 @@
       <c r="F80" s="15"/>
       <c r="G80" s="13"/>
       <c r="H80" s="14" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="I80" s="16"/>
       <c r="J80" s="15"/>
       <c r="K80" s="17"/>
       <c r="L80" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M80" s="15"/>
       <c r="N80" s="17"/>
@@ -5559,18 +5686,18 @@
       <c r="F81" s="15"/>
       <c r="G81" s="13"/>
       <c r="H81" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I81" s="16"/>
       <c r="J81" s="15"/>
       <c r="K81" s="17"/>
       <c r="L81" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M81" s="15"/>
       <c r="N81" s="17"/>
       <c r="O81" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P81" s="15"/>
       <c r="Q81" s="15"/>

--- a/doc/外部設計書/外部設計書_F2_fireworks_使い方.xlsx
+++ b/doc/外部設計書/外部設計書_F2_fireworks_使い方.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\外部設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B819D1E-13D0-46A8-A4D7-D1F370E2D13C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D0D9FB5-F53E-46A3-B653-906C48D91989}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -264,7 +264,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -314,6 +314,20 @@
       <color rgb="FF1D1C1D"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="2">
@@ -635,7 +649,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -717,15 +731,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -746,9 +751,6 @@
     <xf numFmtId="14" fontId="5" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -758,8 +760,43 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1430,16 +1467,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>108857</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>45357</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>168622</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>164886</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>199571</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>54429</xdr:rowOff>
+      <xdr:colOff>5336</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>173959</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1454,21 +1491,15 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="616857" y="8046357"/>
-          <a:ext cx="5424714" cy="3057072"/>
+          <a:off x="422622" y="7934298"/>
+          <a:ext cx="5424714" cy="3116837"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
+        <a:noFill/>
         <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -1490,7 +1521,7 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="800" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -1502,7 +1533,7 @@
             <a:t>「</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -1514,7 +1545,7 @@
             <a:t>1</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="800" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -1525,20 +1556,20 @@
             </a:rPr>
             <a:t>　ドロワーメニュー」をクリック</a:t>
           </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="800" b="1">
             <a:effectLst/>
           </a:endParaRPr>
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
             <a:t>	</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
             <a:t>ドロワーメニューを表示</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
         </a:p>
         <a:p>
           <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
@@ -1559,7 +1590,7 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="800" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -1571,7 +1602,7 @@
             <a:t>「</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -1583,7 +1614,7 @@
             <a:t>2</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="800" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -1595,7 +1626,7 @@
             <a:t>　</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -1607,7 +1638,7 @@
             <a:t>画像</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="800" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -1618,7 +1649,7 @@
             </a:rPr>
             <a:t>」</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" b="1">
             <a:solidFill>
               <a:schemeClr val="dk1"/>
             </a:solidFill>
@@ -1647,14 +1678,14 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
             <a:t>	</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
             <a:t>説明用の画面</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
         </a:p>
         <a:p>
           <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
@@ -1675,7 +1706,7 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="800" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -1687,7 +1718,7 @@
             <a:t>「</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -1699,7 +1730,7 @@
             <a:t>3</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="800" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -1711,7 +1742,7 @@
             <a:t>　</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -1723,7 +1754,7 @@
             <a:t>説明文</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="800" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -1734,7 +1765,7 @@
             </a:rPr>
             <a:t>」</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" b="1">
             <a:solidFill>
               <a:schemeClr val="dk1"/>
             </a:solidFill>
@@ -1763,14 +1794,14 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
             <a:t>	</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
             <a:t>説明文</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
         </a:p>
         <a:p>
           <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
@@ -1791,10 +1822,10 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" b="1"/>
             <a:t>「４　使い方画面」スクロール</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" b="1"/>
         </a:p>
         <a:p>
           <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
@@ -1815,11 +1846,11 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
             <a:t>	</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
             <a:t>画面がスクロールできる</a:t>
           </a:r>
         </a:p>
@@ -2367,8 +2398,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H81" sqref="H81"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J80" sqref="J80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2389,11 +2420,11 @@
       <c r="H1" s="21"/>
       <c r="I1" s="21"/>
       <c r="J1" s="22"/>
-      <c r="K1" s="29" t="s">
+      <c r="K1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
       <c r="N1" s="29" t="s">
         <v>23</v>
       </c>
@@ -2405,10 +2436,10 @@
       <c r="T1" s="29"/>
       <c r="U1" s="29"/>
       <c r="V1" s="29"/>
-      <c r="W1" s="29" t="s">
+      <c r="W1" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="29"/>
+      <c r="X1" s="40"/>
       <c r="Y1" s="29" t="s">
         <v>21</v>
       </c>
@@ -2418,19 +2449,19 @@
       <c r="AC1" s="29"/>
       <c r="AD1" s="29"/>
       <c r="AE1" s="29"/>
-      <c r="AF1" s="44" t="s">
+      <c r="AF1" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="44"/>
-      <c r="AH1" s="36" t="s">
+      <c r="AG1" s="45"/>
+      <c r="AH1" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="AI1" s="36"/>
-      <c r="AJ1" s="36"/>
-      <c r="AK1" s="36"/>
-      <c r="AL1" s="36"/>
-      <c r="AM1" s="36"/>
-      <c r="AN1" s="37"/>
+      <c r="AI1" s="33"/>
+      <c r="AJ1" s="33"/>
+      <c r="AK1" s="33"/>
+      <c r="AL1" s="33"/>
+      <c r="AM1" s="33"/>
+      <c r="AN1" s="34"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="23"/>
@@ -2443,48 +2474,48 @@
       <c r="H2" s="24"/>
       <c r="I2" s="24"/>
       <c r="J2" s="25"/>
-      <c r="K2" s="38" t="s">
+      <c r="K2" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38" t="s">
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="O2" s="38"/>
-      <c r="P2" s="38"/>
-      <c r="Q2" s="38"/>
-      <c r="R2" s="38"/>
-      <c r="S2" s="38"/>
-      <c r="T2" s="38"/>
-      <c r="U2" s="38"/>
-      <c r="V2" s="38"/>
-      <c r="W2" s="38" t="s">
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="35"/>
+      <c r="S2" s="35"/>
+      <c r="T2" s="35"/>
+      <c r="U2" s="35"/>
+      <c r="V2" s="35"/>
+      <c r="W2" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="38"/>
-      <c r="Y2" s="39">
+      <c r="X2" s="41"/>
+      <c r="Y2" s="36">
         <v>45083</v>
       </c>
-      <c r="Z2" s="38"/>
-      <c r="AA2" s="38"/>
-      <c r="AB2" s="38"/>
-      <c r="AC2" s="38"/>
-      <c r="AD2" s="38"/>
-      <c r="AE2" s="38"/>
-      <c r="AF2" s="40" t="s">
+      <c r="Z2" s="35"/>
+      <c r="AA2" s="35"/>
+      <c r="AB2" s="35"/>
+      <c r="AC2" s="35"/>
+      <c r="AD2" s="35"/>
+      <c r="AE2" s="35"/>
+      <c r="AF2" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="40"/>
-      <c r="AH2" s="41">
+      <c r="AG2" s="46"/>
+      <c r="AH2" s="37">
         <v>45084</v>
       </c>
-      <c r="AI2" s="42"/>
-      <c r="AJ2" s="42"/>
-      <c r="AK2" s="42"/>
-      <c r="AL2" s="42"/>
-      <c r="AM2" s="42"/>
-      <c r="AN2" s="43"/>
+      <c r="AI2" s="38"/>
+      <c r="AJ2" s="38"/>
+      <c r="AK2" s="38"/>
+      <c r="AL2" s="38"/>
+      <c r="AM2" s="38"/>
+      <c r="AN2" s="39"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="26"/>
@@ -2497,38 +2528,38 @@
       <c r="H3" s="27"/>
       <c r="I3" s="27"/>
       <c r="J3" s="28"/>
-      <c r="K3" s="30" t="s">
+      <c r="K3" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="31"/>
-      <c r="M3" s="32"/>
-      <c r="N3" s="33"/>
-      <c r="O3" s="34"/>
-      <c r="P3" s="34"/>
-      <c r="Q3" s="34"/>
-      <c r="R3" s="34"/>
-      <c r="S3" s="34"/>
-      <c r="T3" s="34"/>
-      <c r="U3" s="34"/>
-      <c r="V3" s="34"/>
-      <c r="W3" s="34"/>
-      <c r="X3" s="34"/>
-      <c r="Y3" s="34"/>
-      <c r="Z3" s="34"/>
-      <c r="AA3" s="34"/>
-      <c r="AB3" s="34"/>
-      <c r="AC3" s="34"/>
-      <c r="AD3" s="34"/>
-      <c r="AE3" s="34"/>
-      <c r="AF3" s="34"/>
-      <c r="AG3" s="34"/>
-      <c r="AH3" s="34"/>
-      <c r="AI3" s="34"/>
-      <c r="AJ3" s="34"/>
-      <c r="AK3" s="34"/>
-      <c r="AL3" s="34"/>
-      <c r="AM3" s="34"/>
-      <c r="AN3" s="35"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="44"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="31"/>
+      <c r="P3" s="31"/>
+      <c r="Q3" s="31"/>
+      <c r="R3" s="31"/>
+      <c r="S3" s="31"/>
+      <c r="T3" s="31"/>
+      <c r="U3" s="31"/>
+      <c r="V3" s="31"/>
+      <c r="W3" s="31"/>
+      <c r="X3" s="31"/>
+      <c r="Y3" s="31"/>
+      <c r="Z3" s="31"/>
+      <c r="AA3" s="31"/>
+      <c r="AB3" s="31"/>
+      <c r="AC3" s="31"/>
+      <c r="AD3" s="31"/>
+      <c r="AE3" s="31"/>
+      <c r="AF3" s="31"/>
+      <c r="AG3" s="31"/>
+      <c r="AH3" s="31"/>
+      <c r="AI3" s="31"/>
+      <c r="AJ3" s="31"/>
+      <c r="AK3" s="31"/>
+      <c r="AL3" s="31"/>
+      <c r="AM3" s="31"/>
+      <c r="AN3" s="32"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -2577,7 +2608,7 @@
     </row>
     <row r="6" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="6"/>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="47" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="4"/>
@@ -4001,7 +4032,7 @@
     </row>
     <row r="41" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="6"/>
-      <c r="B41" s="3" t="s">
+      <c r="B41" s="47" t="s">
         <v>9</v>
       </c>
       <c r="C41" s="4"/>
@@ -5425,7 +5456,7 @@
     </row>
     <row r="76" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="6"/>
-      <c r="B76" s="3" t="s">
+      <c r="B76" s="47" t="s">
         <v>10</v>
       </c>
       <c r="C76" s="4"/>
@@ -5511,63 +5542,63 @@
     </row>
     <row r="78" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="6"/>
-      <c r="B78" s="12" t="s">
+      <c r="B78" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="C78" s="13"/>
-      <c r="D78" s="14" t="s">
+      <c r="C78" s="49"/>
+      <c r="D78" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="E78" s="15"/>
-      <c r="F78" s="15"/>
-      <c r="G78" s="13"/>
-      <c r="H78" s="14" t="s">
+      <c r="E78" s="51"/>
+      <c r="F78" s="51"/>
+      <c r="G78" s="49"/>
+      <c r="H78" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="I78" s="16"/>
-      <c r="J78" s="15"/>
-      <c r="K78" s="17"/>
-      <c r="L78" s="14" t="s">
+      <c r="I78" s="52"/>
+      <c r="J78" s="51"/>
+      <c r="K78" s="53"/>
+      <c r="L78" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="M78" s="15"/>
-      <c r="N78" s="17"/>
-      <c r="O78" s="14" t="s">
+      <c r="M78" s="51"/>
+      <c r="N78" s="53"/>
+      <c r="O78" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="P78" s="15"/>
-      <c r="Q78" s="15"/>
-      <c r="R78" s="17"/>
-      <c r="S78" s="14" t="s">
+      <c r="P78" s="51"/>
+      <c r="Q78" s="51"/>
+      <c r="R78" s="53"/>
+      <c r="S78" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="T78" s="17"/>
-      <c r="U78" s="14" t="s">
+      <c r="T78" s="53"/>
+      <c r="U78" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="V78" s="17"/>
-      <c r="W78" s="14" t="s">
+      <c r="V78" s="53"/>
+      <c r="W78" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="X78" s="15"/>
-      <c r="Y78" s="15"/>
-      <c r="Z78" s="17"/>
-      <c r="AA78" s="14" t="s">
+      <c r="X78" s="51"/>
+      <c r="Y78" s="51"/>
+      <c r="Z78" s="53"/>
+      <c r="AA78" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="AB78" s="15"/>
-      <c r="AC78" s="17"/>
-      <c r="AD78" s="14" t="s">
+      <c r="AB78" s="51"/>
+      <c r="AC78" s="53"/>
+      <c r="AD78" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="AE78" s="15"/>
-      <c r="AF78" s="15"/>
-      <c r="AG78" s="15"/>
-      <c r="AH78" s="15"/>
-      <c r="AI78" s="15"/>
-      <c r="AJ78" s="15"/>
-      <c r="AK78" s="15"/>
-      <c r="AL78" s="15"/>
+      <c r="AE78" s="51"/>
+      <c r="AF78" s="51"/>
+      <c r="AG78" s="51"/>
+      <c r="AH78" s="51"/>
+      <c r="AI78" s="51"/>
+      <c r="AJ78" s="51"/>
+      <c r="AK78" s="51"/>
+      <c r="AL78" s="51"/>
       <c r="AM78" s="18"/>
       <c r="AN78" s="7"/>
     </row>
